--- a/data/trans_bre/P62-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P62-Habitat-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-38.92069124237664</v>
+        <v>-38.48342908962319</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-24.30931160618811</v>
+        <v>-23.96011897897555</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-20.9333438600333</v>
+        <v>-21.13837151343241</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-27.81905508927197</v>
+        <v>-28.18547149872974</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.6442170471613282</v>
+        <v>-0.6464421956372922</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.4568360121839606</v>
+        <v>-0.459969197454862</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.4322675020787665</v>
+        <v>-0.4415046670340668</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.4162387173468936</v>
+        <v>-0.4271364170523595</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-25.64181524229382</v>
+        <v>-25.66516800815836</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-10.9234567071217</v>
+        <v>-11.0399037054725</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-8.41472703038211</v>
+        <v>-8.655378295292024</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-13.73344433783316</v>
+        <v>-14.0190446976157</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.4947402353246468</v>
+        <v>-0.498962542757558</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.2362830948042173</v>
+        <v>-0.244996815380726</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>-0.2039352092092463</v>
+        <v>-0.205707250347432</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.2433990408924373</v>
+        <v>-0.2517574031845514</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-16.92134046956076</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-19.5210167002182</v>
+        <v>-19.52101670021821</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.6106352143708904</v>
@@ -749,7 +749,7 @@
         <v>-0.384846980700194</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.3699322500595421</v>
+        <v>-0.3699322500595422</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-40.57912949428554</v>
+        <v>-40.38230264946529</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-18.41372478990917</v>
+        <v>-18.79640951914631</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-22.21946585603509</v>
+        <v>-22.45994895304491</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-25.76121216944264</v>
+        <v>-25.74218184887872</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6753407107967894</v>
+        <v>-0.6743995516876602</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4142054066291759</v>
+        <v>-0.4235529400553729</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4796523450115305</v>
+        <v>-0.473846116683648</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4537332809018302</v>
+        <v>-0.4515975826897007</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-28.46549123408669</v>
+        <v>-28.33107419025191</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-7.606226692492177</v>
+        <v>-7.650197564585286</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-11.60954178697266</v>
+        <v>-10.90659461635562</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-12.74491957478319</v>
+        <v>-12.99118609004556</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.5368216497638904</v>
+        <v>-0.5390531536473053</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.1977052271506506</v>
+        <v>-0.2014245928074222</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.2806292792529331</v>
+        <v>-0.2709623688109387</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.2658072368411944</v>
+        <v>-0.2683659220132408</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-38.99893360452935</v>
+        <v>-38.76333405128351</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-18.55151514525923</v>
+        <v>-19.18149193442838</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-25.74475119690942</v>
+        <v>-25.99440657206212</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-32.78714871012029</v>
+        <v>-32.29216421958608</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.6269545885247498</v>
+        <v>-0.6284515805994915</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.4366378700807027</v>
+        <v>-0.4518512515840103</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.5140167917606667</v>
+        <v>-0.5157845564352802</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.4964823583112277</v>
+        <v>-0.4983004772020409</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-24.99153215337419</v>
+        <v>-24.12672365638079</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-6.273592541113923</v>
+        <v>-6.489485851605228</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-13.07941506188307</v>
+        <v>-13.00440142159255</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-17.74415127216688</v>
+        <v>-17.22608512286506</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.4680519840357112</v>
+        <v>-0.4551434224789307</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.1736469270286624</v>
+        <v>-0.1830608796890526</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>-0.2982802954295246</v>
+        <v>-0.2955013038004092</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.3239342096956</v>
+        <v>-0.314321665543521</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-27.62370503019164</v>
+        <v>-29.09923920588918</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-22.86547444677842</v>
+        <v>-22.32402888570302</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-20.22448714181304</v>
+        <v>-20.70113266133209</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-16.15217020300468</v>
+        <v>-15.87263491616496</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5263083278538447</v>
+        <v>-0.5409698015133689</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.454767817619955</v>
+        <v>-0.4416873689294774</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3824763977838671</v>
+        <v>-0.387220643643656</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3019560167774074</v>
+        <v>-0.2967690490790645</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-15.49643125994686</v>
+        <v>-16.04744190177509</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-11.72257035975738</v>
+        <v>-10.89553156774129</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-8.828232454868086</v>
+        <v>-9.234991229840114</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-4.365684528405771</v>
+        <v>-4.153187525734436</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.3383880288559888</v>
+        <v>-0.3541285327847119</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.2619956589241458</v>
+        <v>-0.248876838020086</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.187862280124373</v>
+        <v>-0.1967745953224425</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.09661340793305936</v>
+        <v>-0.09158643308783311</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-16.17091929420479</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-18.28694625186626</v>
+        <v>-18.28694625186625</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.5484449197271321</v>
@@ -1049,7 +1049,7 @@
         <v>-0.3488456022258425</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.3316524983810746</v>
+        <v>-0.3316524983810745</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-32.90225692495298</v>
+        <v>-33.2513967814637</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-17.84820670234356</v>
+        <v>-17.9139581733117</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-19.17570711618668</v>
+        <v>-19.38533137972955</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-21.71278876936281</v>
+        <v>-21.52473744607565</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.5848724466590308</v>
+        <v>-0.5852195637807648</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.391754396505019</v>
+        <v>-0.390469213131454</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.3985407052228603</v>
+        <v>-0.4063654857730677</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.3782026762981018</v>
+        <v>-0.3749665683360729</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-26.87588427877579</v>
+        <v>-26.92093112817996</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-12.09189059497292</v>
+        <v>-11.97845730338569</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-12.99276945620542</v>
+        <v>-13.31879964797899</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-14.96744908328019</v>
+        <v>-14.63782643480461</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.508741826220421</v>
+        <v>-0.5062074243687761</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.2835770602003047</v>
+        <v>-0.2824889069265732</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.2911255074941231</v>
+        <v>-0.2979790711031341</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.2826047204443661</v>
+        <v>-0.2798436304250175</v>
       </c>
     </row>
     <row r="19">
